--- a/DOM_Banner/output/dept_banner/Aneesha Shetty_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Aneesha Shetty_2023.xlsx
@@ -733,11 +733,11 @@
 "Andrew M. Cameron", "Niraj M. Desai", "Christine M. Durand", "Shane Ottmann", "Nahel Elias", "Alexander Gilbert", "Coleman I. Smith", "Jose A. Castillo-Lugo", "Sander Florman", "Dorry L. Segev", "Allan B. Massie", "Sapna A. Mehta", "Valentina Stosor", "Jonathan Hand", "Emily A. Blumberg", "Carlos Santos", "Rochelle Goldberg", "Shikha Mehta", "Robert M. Cannon", "Emmanouil Giorgakis", "Joanna Schaenman", "Saima Aslam", "Peter G. Stock", "Jennifer Price", "Senu Apewokin", "Esther Benamu", "Mario Spaggiari", 
 "John W. Baddley", "Michele Morris", "Jacques Simkins", "Timothy L. Pruett", "Ghady Haidar", "David Wojciechowski", "Avinash Kumar Ágarwal", "Vasanthi Balaraman", "Gaurav Gupta", "Will Chapman", "Thangamani Muthukumar", "Catherine B. Small", "Maricar Malinis"), au_orcid = c("https://orcid.org/0000-0003-2605-9257", "https://orcid.org/0000-0003-4686-0674", NA, NA, "https://orcid.org/0000-0002-0914-0291", "https://orcid.org/0000-0002-5365-5030", "https://orcid.org/0000-0002-0388-5460", NA, NA, NA, 
 NA, "https://orcid.org/0000-0002-5288-5125", NA, NA, "https://orcid.org/0000-0002-3287-6061", "https://orcid.org/0000-0003-2838-2058", "https://orcid.org/0000-0002-0517-3766", "https://orcid.org/0000-0001-5552-0917", "https://orcid.org/0000-0003-0928-2860", "https://orcid.org/0000-0002-1924-4801", NA, "https://orcid.org/0000-0002-9214-9122", NA, "https://orcid.org/0000-0002-5365-5030", NA, NA, "https://orcid.org/0000-0002-3212-5831", NA, "https://orcid.org/0000-0002-5810-2398", "https://orcid.org/0000-0002-0457-3506", 
-"https://orcid.org/0000-0003-2605-9257", NA, "https://orcid.org/0000-0001-6466-7347", "https://orcid.org/0000-0001-5069-1880", NA, NA, "https://orcid.org/0000-0002-1635-9136", "https://orcid.org/0000-0002-1924-4801", "https://orcid.org/0000-0002-5288-5125", "https://orcid.org/0000-0002-5588-905X", "https://orcid.org/0000-0002-0388-5460", "https://orcid.org/0000-0002-5752-9576", "https://orcid.org/0000-0002-5193-6170", "https://orcid.org/0000-0002-6874-6736", NA, NA, "https://orcid.org/0000-0002-0345-0643", 
-"https://orcid.org/0000-0002-5019-5497", "https://orcid.org/0000-0003-1174-3961", "https://orcid.org/0000-0002-4051-5629", "https://orcid.org/0000-0002-5806-0167", "https://orcid.org/0000-0002-3825-5696", "https://orcid.org/0000-0002-3915-5814", NA, "https://orcid.org/0000-0003-3000-6094", "https://orcid.org/0000-0001-9111-625X", "https://orcid.org/0000-0002-3255-5727", "https://orcid.org/0000-0001-9626-0760", "https://orcid.org/0000-0002-0715-8535", "https://orcid.org/0000-0003-0634-8211", NA, "https://orcid.org/0000-0001-5283-9631", 
-NA, "https://orcid.org/0000-0003-1919-1970", NA, "https://orcid.org/0000-0002-0294-6209", "https://orcid.org/0000-0002-0601-6615", "https://orcid.org/0000-0002-5720-9994"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", 
-"middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, USA", "Donor 1, GA, USA. ORCiD ID: 0000-0003-4686-0674", 
-"Donor 2, VA, USA", "Donor 3, IL, USA", "Division of Infectious Diseases, Department of Medicine, Duke University School of Medicine, Durham, NC, USA", "Division of Infectious Diseases, Department of Medicine, Duke University School of Medicine, Durham, NC, USA", "Divisions of Infectious Diseases and Organ Transplantation, Feinberg School of Medicine, Northwestern University, Chicago, IL, USA", "Divisions of Infectious Diseases and Organ Transplantation, Feinberg School of Medicine, Northwestern University, Chicago, IL, USA", 
+"https://orcid.org/0000-0003-2605-9257", NA, "https://orcid.org/0000-0001-6466-7347", "https://orcid.org/0000-0001-5069-1880", NA, NA, "https://orcid.org/0000-0002-1635-9136", "https://orcid.org/0000-0002-1924-4801", "https://orcid.org/0000-0002-5288-5125", "https://orcid.org/0000-0002-5588-905X", "https://orcid.org/0000-0002-0388-5460", "https://orcid.org/0000-0002-5752-9576", "https://orcid.org/0000-0002-5193-6170", "https://orcid.org/0000-0002-6874-6736", NA, "https://orcid.org/0000-0001-6616-4866", 
+"https://orcid.org/0000-0002-0345-0643", "https://orcid.org/0000-0002-5019-5497", "https://orcid.org/0000-0003-1174-3961", "https://orcid.org/0000-0002-4051-5629", "https://orcid.org/0000-0002-5806-0167", "https://orcid.org/0000-0002-3825-5696", "https://orcid.org/0000-0002-3915-5814", NA, "https://orcid.org/0000-0003-3000-6094", "https://orcid.org/0000-0001-9111-625X", "https://orcid.org/0000-0002-3255-5727", "https://orcid.org/0000-0001-9626-0760", "https://orcid.org/0000-0002-0715-8535", "https://orcid.org/0000-0003-0634-8211", 
+NA, "https://orcid.org/0000-0001-5283-9631", NA, "https://orcid.org/0000-0003-1919-1970", NA, "https://orcid.org/0000-0002-0294-6209", "https://orcid.org/0000-0002-0601-6615", "https://orcid.org/0000-0002-5720-9994"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", 
+"middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, USA", 
+"Donor 1, GA, USA. ORCiD ID: 0000-0003-4686-0674", "Donor 2, VA, USA", "Donor 3, IL, USA", "Division of Infectious Diseases, Department of Medicine, Duke University School of Medicine, Durham, NC, USA", "Division of Infectious Diseases, Department of Medicine, Duke University School of Medicine, Durham, NC, USA", "Divisions of Infectious Diseases and Organ Transplantation, Feinberg School of Medicine, Northwestern University, Chicago, IL, USA", "Divisions of Infectious Diseases and Organ Transplantation, Feinberg School of Medicine, Northwestern University, Chicago, IL, USA", 
 "Divisions of Infectious Diseases and Organ Transplantation, Feinberg School of Medicine, Northwestern University, Chicago, IL, USA", "Divisions of Infectious Diseases and Organ Transplantation, Feinberg School of Medicine, Northwestern University, Chicago, IL, USA", "Divisions of Infectious Diseases and Organ Transplantation, Feinberg School of Medicine, Northwestern University, Chicago, IL, USA", "Department of Surgery, NYU Grossman School of Medicine, New York, NY, USA", "Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, USA", 
 "Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, USA", "Department of Surgery, Johns Hopkins University School of Medicine, Baltimore, MD, USA", "Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, USA", "Department of Pathology, Johns Hopkins University School of Medicine, Baltimore, MD, USA", "Cancer Innovation Laboratory, Center for Cancer Research, NCI and Basic Research Program, Frederick National Laboratories for Cancer Research, Frederick, MD, USA", 
 "Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, USA", "Department of Surgery, NYU Grossman School of Medicine, New York, NY, USA", "", "", "", "Division of Infectious Diseases, Department of Medicine, Duke University School of Medicine, Durham, NC, USA", "", "", "", "", "Division of Infectious Diseases, Department of Medicine, Duke University School of Medicine, Durham, NC, USA", "", "Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, USA", 
@@ -941,7 +941,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Introduction While living donor (LD) kidney transplantation is the optimal treatment for patients with kidney failure, LDs assume a higher risk of future kidney failure themselves. LDs of African ancestry have an even greater risk of kidney failure post-donation than White LDs. Because evidence suggests that Apolipoprotein L1 ( APOL1 ) risk variants contribute to this greater risk, transplant nephrologists are increasingly using APOL1 genetic testing to evaluate LD candidates of African ancestry. However, nephrologists do not consistently perform genetic counselling with LD candidates about APOL1 due to a lack of knowledge and skill in counselling. Without proper counselling, APOL1 testing will magnify LD candidates’ decisional conflict about donating, jeopardising their informed consent. Given cultural concerns about genetic testing among people of African ancestry, protecting LD candidates’ safety is essential to improve informed decisions about donating. Clinical ‘chatbots’, mobile apps that provide genetic information to patients, can improve informed treatment decisions. No chatbot on APOL1 is available and no nephrologist training programmes are available to provide culturally competent counselling to LDs about APOL1 . Given the shortage of genetic counsellors, increasing nephrologists’ genetic literacy is critical to integrating genetic testing into practice. Methods and analysis Using a non-randomised, pre–post trial design in two transplant centres (Chicago, IL, and Washington, DC), we will evaluate the effectiveness of culturally competent APOL1 testing, chatbot and counselling on LD candidates’ decisional conflict about donating, preparedness for decision-making, willingness to donate and satisfaction with informed consent and longitudinally evaluate the implementation of this intervention into clinical practice using the R each, E ffectiveness, A doption, I mplementation and M aintenance framework. Ethics and dissemination This study will create a model for APOL1 testing of LDs of African ancestry, which can be implemented nationally via implementation science approaches. APOL1 will serve as a model for integrating culturally competent genetic testing into transplant and other practices to improve informed consent. This study involves human participants and was approved by Northwestern University IRB (STU00214038). Participants gave informed consent to participate in the study before taking part. Trial registration ClinicalTrials.gov Identifier: NCT04910867 . Registered 8 May 2021, https://register.clinicaltrials.gov/prs/app/action/SelectProtocol?sid=S000AWZ6&amp;amp;selectaction=Edit&amp;amp;uid=U0001PPF&amp;amp;ts=7&amp;amp;cx=-8jv7m2 ClinicalTrials.gov Identifier: NCT04999436 . Registered 5 November 2021, https://register.clinicaltrials.gov/prs/app/action/SelectProtocol?sid=S000AYWW&amp;amp;selectaction=Edit&amp;amp;uid=U0001PPF&amp;amp;ts=11&amp;amp;cx=9tny7v</t>
+          <t>While living donor (LD) kidney transplantation is the optimal treatment for patients with kidney failure, LDs assume a higher risk of future kidney failure themselves. LDs of African ancestry have an even greater risk of kidney failure post-donation than White LDs. Because evidence suggests that Apolipoprotein L1 (APOL1) risk variants contribute to this greater risk, transplant nephrologists are increasingly using APOL1 genetic testing to evaluate LD candidates of African ancestry. However, nephrologists do not consistently perform genetic counselling with LD candidates about APOL1 due to a lack of knowledge and skill in counselling. Without proper counselling, APOL1 testing will magnify LD candidates' decisional conflict about donating, jeopardising their informed consent. Given cultural concerns about genetic testing among people of African ancestry, protecting LD candidates' safety is essential to improve informed decisions about donating. Clinical 'chatbots', mobile apps that provide genetic information to patients, can improve informed treatment decisions. No chatbot on APOL1 is available and no nephrologist training programmes are available to provide culturally competent counselling to LDs about APOL1. Given the shortage of genetic counsellors, increasing nephrologists' genetic literacy is critical to integrating genetic testing into practice.Using a non-randomised, pre-post trial design in two transplant centres (Chicago, IL, and Washington, DC), we will evaluate the effectiveness of culturally competent APOL1 testing, chatbot and counselling on LD candidates' decisional conflict about donating, preparedness for decision-making, willingness to donate and satisfaction with informed consent and longitudinally evaluate the implementation of this intervention into clinical practice using the Reach, Effectiveness, Adoption, Implementation and Maintenance framework.This study will create a model for APOL1 testing of LDs of African ancestry, which can be implemented nationally via implementation science approaches. APOL1 will serve as a model for integrating culturally competent genetic testing into transplant and other practices to improve informed consent. This study involves human participants and was approved by Northwestern University IRB (STU00214038). Participants gave informed consent to participate in the study before taking part.ClinicalTrials.gov Identifier: NCT04910867. Registered 8 May 2021, https://register.gov/prs/app/action/SelectProtocol?sid=S000AWZ6&amp;selectaction=Edit&amp;uid=U0001PPF&amp;ts=7&amp;cx=-8jv7m2 ClinicalTrials.gov Identifier: NCT04999436. Registered 5 November 2021, https://register.gov/prs/app/action/SelectProtocol?sid=S000AYWW&amp;selectaction=Edit&amp;uid=U0001PPF&amp;ts=11&amp;cx=9tny7v.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2538130930", "https://openalex.org/W4210704068", "https://openalex.org/W2006420298", "https://openalex.org/W4376872152", "https://openalex.org/W2059304053", "https://openalex.org/W2142174838", "https://openalex.org/W2792273385", "https://openalex.org/W4323293767", "https://openalex.org/W4313489189", "https://openalex.org/W2134629356")</t>
+          <t>c("https://openalex.org/W2055915581", "https://openalex.org/W2355769538", "https://openalex.org/W2081816252", "https://openalex.org/W2373885168", "https://openalex.org/W2112436308", "https://openalex.org/W2362391294", "https://openalex.org/W3139914494", "https://openalex.org/W1556819926", "https://openalex.org/W3179965273", "https://openalex.org/W2151333571")</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Aneesha Shetty_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Aneesha Shetty_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, The Banner University Medical Center, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Infectious Diseases, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Infectious Diseases, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367309455</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Lack of effectiveness of Bebtelovimab monoclonal antibody among high-risk patients with SARS-Cov-2 Omicron during BA.2, BA.2.12.1 and BA.5 subvariants dominated era</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>PLOS ONE</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Public Library of Science</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0279326</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37115780</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0279326</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, USA; Donor 1, GA, USA. ORCiD ID: 0000-0003-4686-0674; Donor 2, VA, USA; Donor 3, IL, USA; Division of Infectious Diseases, Department of Medicine, Duke University School of Medicine, Durham, NC, USA; Division of Infectious Diseases, Department of Medicine, Duke University School of Medicine, Durham, NC, USA; Divisions of Infectious Diseases and Organ Transplantation, Feinberg School of Medicine, Northwestern University, Chicago, IL, USA; Divisions of Infectious Diseases and Organ Transplantation, Feinberg School of Medicine, Northwestern University, Chicago, IL, USA; Divisions of Infectious Diseases and Organ Transplantation, Feinberg School of Medicine, Northwestern University, Chicago, IL, USA; Divisions of Infectious Diseases and Organ Transplantation, Feinberg School of Medicine, Northwestern University, Chicago, IL, USA; Divisions of Infectious Diseases and Organ Transplantation, Feinberg School of Medicine, Northwestern University, Chicago, IL, USA; Department of Surgery, NYU Grossman School of Medicine, New York, NY, USA; Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, USA; Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, USA; Department of Surgery, Johns Hopkins University School of Medicine, Baltimore, MD, USA; Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, USA; Department of Pathology, Johns Hopkins University School of Medicine, Baltimore, MD, USA; Cancer Innovation Laboratory, Center for Cancer Research, NCI and Basic Research Program, Frederick National Laboratories for Cancer Research, Frederick, MD, USA; Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, USA; Department of Surgery, NYU Grossman School of Medicine, New York, NY, USA; ; ; ; Division of Infectious Diseases, Department of Medicine, Duke University School of Medicine, Durham, NC, USA; ; ; ; ; Division of Infectious Diseases, Department of Medicine, Duke University School of Medicine, Durham, NC, USA; ; Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, USA; ; ; ; ; ; ; Department of Surgery, NYU Grossman School of Medicine, New York, NY, USA; Department of Surgery, NYU Grossman School of Medicine, New York, NY, USA; ; Divisions of Infectious Diseases and Organ Transplantation, Feinberg School of Medicine, Northwestern University, Chicago, IL, USA; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, USA; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385213879</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Living kidney donors with HIV: experience and outcomes from a case series by the HOPE in Action Consortium</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The Lancet Regional Health - Americas</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.lana.2023.100553</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37600163</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.lana.2023.100553</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Population Health Sciences, Spencer Fox Eccles School of Medicine at the University of Utah, Salt Lake City, Utah, USA; Departments of Psychiatry and Behavioral Sciences and Medical Social Sciences, Northwestern University Feinberg School of Medicine, Chicago, IL, USA; Medicine, Northwestern University Feinberg School of Medicine, Chicago, Illinois, USA; Obstetrics and Gynecology, Northwestern University Feinberg School of Medicine, Chicago, Illinois, USA; Medicine, Northwestern University Feinberg School of Medicine, Chicago, Illinois, USA; Medicine, Northwestern University Feinberg School of Medicine, Chicago, Illinois, USA; Division of Health and Biomedical Informatics, Northwestern University Feinberg School of Medicine, Chicago, Illinois, USA; Center for Health Services and Outcomes Research, Northwestern University Feinberg School of Medicine, Chicago, Illinois, USA; Medical Social Sciences, Northwestern University Feinberg School of Medicine, Chicago, Illinois, USA; Department of Preventive Medicine-Division of Biostatistics, Northwestern University, Chicago, Illinois, USA; Department of Medicine-Division of Cardiology, Northwestern University, Evanston, Illinois, USA; Department of Preventive Medicine-Division of Biostatistics, Northwestern University Feinberg School of Medicine, Chicago, Illinois, USA; Surgery, Medical College of Wisconsin, Milwaukee, WI, USA; Medicine, Georgetown University Medical Center, Washington, District of Columbia, USA; Medicine, The University of Arizona College of Medicine Tucson, Tucson, Arizona, USA; Surgery, Vanderbilt University Medical Center, Nashville, Tennessee, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4376610357</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Implementation of a culturally competent&lt;i&gt;APOL1&lt;/i&gt;genetic testing programme into living donor evaluation: A two-site, non-randomised, pre–post trial design</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>BMJ Open</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>BMJ</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/bmjopen-2022-067657</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37188469</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/bmjopen-2022-067657</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
